--- a/data/base_dados.xlsx
+++ b/data/base_dados.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_-R$ * #,##0.00_-;-R$ * #,##0.00_-;_-R$ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +57,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -541,38 +545,38 @@
           <t>BBSE3</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="2" t="n">
         <v>36.16</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="2" t="n">
         <v>28.58</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="2" t="n">
         <v>36.16</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="3" t="n">
         <v>0.0793</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="3" t="n">
         <v>0.2049</v>
       </c>
       <c r="H2" t="n">
         <v>8.619999999999999</v>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="n">
+      <c r="I2" s="3" t="inlineStr"/>
+      <c r="J2" s="3" t="inlineStr"/>
+      <c r="K2" s="3" t="n">
         <v>0.8337</v>
       </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="L2" s="3" t="inlineStr"/>
+      <c r="M2" s="3" t="inlineStr"/>
+      <c r="N2" s="3" t="n">
         <v>0.1884</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2" s="2" t="n">
         <v>10061717000</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2" s="2" t="n">
         <v>72320000000</v>
       </c>
       <c r="Q2" t="inlineStr">
@@ -602,46 +606,46 @@
           <t>LEVE3</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="2" t="n">
         <v>33.79</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="2" t="n">
         <v>28.97</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="2" t="n">
         <v>36.26</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="3" t="n">
         <v>0.2365</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="3" t="n">
         <v>0.0108</v>
       </c>
       <c r="H3" t="n">
         <v>6.01</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" s="3" t="n">
         <v>0.2931</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" s="3" t="n">
         <v>0.1758</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3" s="3" t="n">
         <v>0.6870000000000001</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3" s="3" t="n">
         <v>0.3193</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" s="3" t="n">
         <v>0.1086</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3" s="3" t="n">
         <v>0.2119</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3" s="2" t="n">
         <v>1109849000</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3" s="2" t="n">
         <v>4579862810</v>
       </c>
       <c r="Q3" t="inlineStr">
@@ -671,46 +675,46 @@
           <t>CURY3</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="2" t="n">
         <v>23.31</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="2" t="n">
         <v>13.92</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="2" t="n">
         <v>23.31</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="3" t="n">
         <v>0.079</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="3" t="n">
         <v>0.3992</v>
       </c>
       <c r="H4" t="n">
         <v>11.69</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" s="3" t="n">
         <v>0.3815</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" s="3" t="n">
         <v>0.1712</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4" s="3" t="n">
         <v>0.6372</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4" s="3" t="n">
         <v>0.2907</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" s="3" t="n">
         <v>0.2568</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4" s="3" t="n">
         <v>0.3475</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4" s="2" t="n">
         <v>913453000</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4" s="2" t="n">
         <v>6803608301</v>
       </c>
       <c r="Q4" t="inlineStr">
@@ -740,40 +744,40 @@
           <t>PLPL3</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="2" t="n">
         <v>12.68</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="2" t="n">
         <v>7.53</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="2" t="n">
         <v>14.49</v>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="n">
+      <c r="F5" s="3" t="inlineStr"/>
+      <c r="G5" s="3" t="n">
         <v>0.2323</v>
       </c>
       <c r="H5" t="n">
         <v>8.76</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5" s="3" t="n">
         <v>0.3277</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5" s="3" t="n">
         <v>0.1235</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5" s="3" t="n">
         <v>0.4744</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5" s="3" t="n">
         <v>0.3063</v>
       </c>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="n">
+      <c r="M5" s="3" t="inlineStr"/>
+      <c r="N5" s="3" t="inlineStr"/>
+      <c r="O5" s="2" t="n">
         <v>623151000</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5" s="2" t="n">
         <v>2589966080</v>
       </c>
       <c r="Q5" t="inlineStr">
@@ -803,46 +807,46 @@
           <t>ODPV3</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="2" t="n">
         <v>11.77</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="2" t="n">
         <v>9.43</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="2" t="n">
         <v>12.29</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="3" t="n">
         <v>0.09050000000000001</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="3" t="n">
         <v>0.1263</v>
       </c>
       <c r="H6" t="n">
         <v>12.37</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6" s="3" t="n">
         <v>0.3061</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6" s="3" t="n">
         <v>0.2381</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6" s="3" t="n">
         <v>0.4257</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6" s="3" t="n">
         <v>0.3602</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6" s="3" t="n">
         <v>0.0588</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6" s="3" t="n">
         <v>0.1304</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6" s="2" t="n">
         <v>1234901000</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6" s="2" t="n">
         <v>6502873954</v>
       </c>
       <c r="Q6" t="inlineStr">
@@ -872,46 +876,46 @@
           <t>EGIE3</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="2" t="n">
         <v>45.68</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="2" t="n">
         <v>38.15</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="2" t="n">
         <v>46.61</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" s="3" t="n">
         <v>0.0512</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="3" t="n">
         <v>0.1469</v>
       </c>
       <c r="H7" t="n">
         <v>8.529999999999999</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7" s="3" t="n">
         <v>0.555</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7" s="3" t="n">
         <v>0.4109</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7" s="3" t="n">
         <v>0.3951</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7" s="3" t="n">
         <v>0.1849</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7" s="3" t="n">
         <v>0.0409</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7" s="3" t="n">
         <v>0.1356</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7" s="2" t="n">
         <v>11061451000</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7" s="2" t="n">
         <v>37271579163</v>
       </c>
       <c r="Q7" t="inlineStr">

--- a/data/base_dados.xlsx
+++ b/data/base_dados.xlsx
@@ -57,12 +57,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -432,503 +443,527 @@
   <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="18" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="23" customWidth="1" min="6" max="6"/>
+    <col width="24" customWidth="1" min="7" max="7"/>
+    <col width="9" customWidth="1" min="8" max="8"/>
+    <col width="16" customWidth="1" min="9" max="9"/>
+    <col width="18" customWidth="1" min="10" max="10"/>
+    <col width="10" customWidth="1" min="11" max="11"/>
+    <col width="10" customWidth="1" min="12" max="12"/>
+    <col width="24" customWidth="1" min="13" max="13"/>
+    <col width="22" customWidth="1" min="14" max="14"/>
+    <col width="22" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="23" customWidth="1" min="17" max="17"/>
+    <col width="44" customWidth="1" min="18" max="18"/>
+    <col width="44" customWidth="1" min="19" max="19"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Empresa</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Ticker</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Valor Atual</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Min 52 Semanas</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Max 52 Semanas</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Dividend Yield</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>Valorizacao 12 Meses</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>P/L</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>Margem Bruta</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>Margem Líquida</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>ROE</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>ROIC</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="2" t="inlineStr">
         <is>
           <t>CAGR Receitas 5 Anos</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>CAGR Lucros 5 Anos</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" s="2" t="inlineStr">
         <is>
           <t>Patrimônio Líquido</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" s="2" t="inlineStr">
         <is>
           <t>Valor de Mercado</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" s="2" t="inlineStr">
         <is>
           <t>Setor</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" s="2" t="inlineStr">
         <is>
           <t>Subsetor</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" s="2" t="inlineStr">
         <is>
           <t>Segmento</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>Bb Seguridade</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>BBSE3</t>
         </is>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="4" t="n">
         <v>36.16</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="4" t="n">
         <v>28.58</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="4" t="n">
         <v>36.16</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="5" t="n">
         <v>0.0793</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="5" t="n">
         <v>0.2049</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2" s="3" t="n">
         <v>8.619999999999999</v>
       </c>
-      <c r="I2" s="3" t="inlineStr"/>
-      <c r="J2" s="3" t="inlineStr"/>
-      <c r="K2" s="3" t="n">
+      <c r="I2" s="6" t="inlineStr"/>
+      <c r="J2" s="6" t="inlineStr"/>
+      <c r="K2" s="5" t="n">
         <v>0.8337</v>
       </c>
-      <c r="L2" s="3" t="inlineStr"/>
-      <c r="M2" s="3" t="inlineStr"/>
-      <c r="N2" s="3" t="n">
+      <c r="L2" s="6" t="inlineStr"/>
+      <c r="M2" s="6" t="inlineStr"/>
+      <c r="N2" s="5" t="n">
         <v>0.1884</v>
       </c>
-      <c r="O2" s="2" t="n">
+      <c r="O2" s="4" t="n">
         <v>10061717000</v>
       </c>
-      <c r="P2" s="2" t="n">
+      <c r="P2" s="4" t="n">
         <v>72320000000</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>Financeiro e Outros</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>Previdência e Seguros</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Seguradoras</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>Mahle-Metal Leve</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>LEVE3</t>
         </is>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="4" t="n">
         <v>33.79</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="4" t="n">
         <v>28.97</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="4" t="n">
         <v>36.26</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3" s="5" t="n">
         <v>0.2365</v>
       </c>
-      <c r="G3" s="3" t="n">
+      <c r="G3" s="5" t="n">
         <v>0.0108</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="3" t="n">
         <v>6.01</v>
       </c>
-      <c r="I3" s="3" t="n">
+      <c r="I3" s="5" t="n">
         <v>0.2931</v>
       </c>
-      <c r="J3" s="3" t="n">
+      <c r="J3" s="5" t="n">
         <v>0.1758</v>
       </c>
-      <c r="K3" s="3" t="n">
+      <c r="K3" s="5" t="n">
         <v>0.6870000000000001</v>
       </c>
-      <c r="L3" s="3" t="n">
+      <c r="L3" s="5" t="n">
         <v>0.3193</v>
       </c>
-      <c r="M3" s="3" t="n">
+      <c r="M3" s="5" t="n">
         <v>0.1086</v>
       </c>
-      <c r="N3" s="3" t="n">
+      <c r="N3" s="5" t="n">
         <v>0.2119</v>
       </c>
-      <c r="O3" s="2" t="n">
+      <c r="O3" s="4" t="n">
         <v>1109849000</v>
       </c>
-      <c r="P3" s="2" t="n">
+      <c r="P3" s="4" t="n">
         <v>4579862810</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" s="3" t="inlineStr">
         <is>
           <t>Consumo Cíclico</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="R3" s="3" t="inlineStr">
         <is>
           <t>Automóveis e Motocicletas</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="S3" s="3" t="inlineStr">
         <is>
           <t>Automóveis e Motocicletas</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Cury Construtora E Incorporadora S.A.</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>CURY3</t>
         </is>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="4" t="n">
         <v>23.31</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="4" t="n">
         <v>13.92</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="4" t="n">
         <v>23.31</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" s="5" t="n">
         <v>0.079</v>
       </c>
-      <c r="G4" s="3" t="n">
+      <c r="G4" s="5" t="n">
         <v>0.3992</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="3" t="n">
         <v>11.69</v>
       </c>
-      <c r="I4" s="3" t="n">
+      <c r="I4" s="5" t="n">
         <v>0.3815</v>
       </c>
-      <c r="J4" s="3" t="n">
+      <c r="J4" s="5" t="n">
         <v>0.1712</v>
       </c>
-      <c r="K4" s="3" t="n">
+      <c r="K4" s="5" t="n">
         <v>0.6372</v>
       </c>
-      <c r="L4" s="3" t="n">
+      <c r="L4" s="5" t="n">
         <v>0.2907</v>
       </c>
-      <c r="M4" s="3" t="n">
+      <c r="M4" s="5" t="n">
         <v>0.2568</v>
       </c>
-      <c r="N4" s="3" t="n">
+      <c r="N4" s="5" t="n">
         <v>0.3475</v>
       </c>
-      <c r="O4" s="2" t="n">
+      <c r="O4" s="4" t="n">
         <v>913453000</v>
       </c>
-      <c r="P4" s="2" t="n">
+      <c r="P4" s="4" t="n">
         <v>6803608301</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" s="3" t="inlineStr">
         <is>
           <t>Consumo Cíclico</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="R4" s="3" t="inlineStr">
         <is>
           <t>Construção Civil</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="S4" s="3" t="inlineStr">
         <is>
           <t>Incorporações</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>Plano &amp; Plano Desenvolvimento Imobiliário S.A.</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>PLPL3</t>
         </is>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="4" t="n">
         <v>12.68</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="4" t="n">
         <v>7.53</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="4" t="n">
         <v>14.49</v>
       </c>
-      <c r="F5" s="3" t="inlineStr"/>
-      <c r="G5" s="3" t="n">
+      <c r="F5" s="6" t="inlineStr"/>
+      <c r="G5" s="5" t="n">
         <v>0.2323</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5" s="3" t="n">
         <v>8.76</v>
       </c>
-      <c r="I5" s="3" t="n">
+      <c r="I5" s="5" t="n">
         <v>0.3277</v>
       </c>
-      <c r="J5" s="3" t="n">
+      <c r="J5" s="5" t="n">
         <v>0.1235</v>
       </c>
-      <c r="K5" s="3" t="n">
+      <c r="K5" s="5" t="n">
         <v>0.4744</v>
       </c>
-      <c r="L5" s="3" t="n">
+      <c r="L5" s="5" t="n">
         <v>0.3063</v>
       </c>
-      <c r="M5" s="3" t="inlineStr"/>
-      <c r="N5" s="3" t="inlineStr"/>
-      <c r="O5" s="2" t="n">
+      <c r="M5" s="6" t="inlineStr"/>
+      <c r="N5" s="6" t="inlineStr"/>
+      <c r="O5" s="4" t="n">
         <v>623151000</v>
       </c>
-      <c r="P5" s="2" t="n">
+      <c r="P5" s="4" t="n">
         <v>2589966080</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" s="3" t="inlineStr">
         <is>
           <t>Consumo Cíclico</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="R5" s="3" t="inlineStr">
         <is>
           <t>Construção Civil</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="S5" s="3" t="inlineStr">
         <is>
           <t>Incorporações</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>Odontoprev</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>ODPV3</t>
         </is>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="4" t="n">
         <v>11.77</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="4" t="n">
         <v>9.43</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="4" t="n">
         <v>12.29</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" s="5" t="n">
         <v>0.09050000000000001</v>
       </c>
-      <c r="G6" s="3" t="n">
+      <c r="G6" s="5" t="n">
         <v>0.1263</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6" s="3" t="n">
         <v>12.37</v>
       </c>
-      <c r="I6" s="3" t="n">
+      <c r="I6" s="5" t="n">
         <v>0.3061</v>
       </c>
-      <c r="J6" s="3" t="n">
+      <c r="J6" s="5" t="n">
         <v>0.2381</v>
       </c>
-      <c r="K6" s="3" t="n">
+      <c r="K6" s="5" t="n">
         <v>0.4257</v>
       </c>
-      <c r="L6" s="3" t="n">
+      <c r="L6" s="5" t="n">
         <v>0.3602</v>
       </c>
-      <c r="M6" s="3" t="n">
+      <c r="M6" s="5" t="n">
         <v>0.0588</v>
       </c>
-      <c r="N6" s="3" t="n">
+      <c r="N6" s="5" t="n">
         <v>0.1304</v>
       </c>
-      <c r="O6" s="2" t="n">
+      <c r="O6" s="4" t="n">
         <v>1234901000</v>
       </c>
-      <c r="P6" s="2" t="n">
+      <c r="P6" s="4" t="n">
         <v>6502873954</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" s="3" t="inlineStr">
         <is>
           <t>Saúde</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="R6" s="3" t="inlineStr">
         <is>
           <t>Serv.Méd.Hospit..Análises e Diagnósticos</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="S6" s="3" t="inlineStr">
         <is>
           <t>Serv.Méd.Hospit..Análises e Diagnósticos</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>Engie Brasil</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>EGIE3</t>
         </is>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="4" t="n">
         <v>45.68</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="4" t="n">
         <v>38.15</v>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="E7" s="4" t="n">
         <v>46.61</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" s="5" t="n">
         <v>0.0512</v>
       </c>
-      <c r="G7" s="3" t="n">
+      <c r="G7" s="5" t="n">
         <v>0.1469</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7" s="3" t="n">
         <v>8.529999999999999</v>
       </c>
-      <c r="I7" s="3" t="n">
+      <c r="I7" s="5" t="n">
         <v>0.555</v>
       </c>
-      <c r="J7" s="3" t="n">
+      <c r="J7" s="5" t="n">
         <v>0.4109</v>
       </c>
-      <c r="K7" s="3" t="n">
+      <c r="K7" s="5" t="n">
         <v>0.3951</v>
       </c>
-      <c r="L7" s="3" t="n">
+      <c r="L7" s="5" t="n">
         <v>0.1849</v>
       </c>
-      <c r="M7" s="3" t="n">
+      <c r="M7" s="5" t="n">
         <v>0.0409</v>
       </c>
-      <c r="N7" s="3" t="n">
+      <c r="N7" s="5" t="n">
         <v>0.1356</v>
       </c>
-      <c r="O7" s="2" t="n">
+      <c r="O7" s="4" t="n">
         <v>11061451000</v>
       </c>
-      <c r="P7" s="2" t="n">
+      <c r="P7" s="4" t="n">
         <v>37271579163</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" s="3" t="inlineStr">
         <is>
           <t>Utilidade Pública</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="R7" s="3" t="inlineStr">
         <is>
           <t>Energia Elétrica</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="S7" s="3" t="inlineStr">
         <is>
           <t>Energia Elétrica</t>
         </is>

--- a/data/base_dados.xlsx
+++ b/data/base_dados.xlsx
@@ -581,22 +581,22 @@
         </is>
       </c>
       <c r="C2" s="4" t="n">
-        <v>36.16</v>
+        <v>36.68</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>28.58</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>36.16</v>
+        <v>36.68</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>0.0793</v>
+        <v>0.0781</v>
       </c>
       <c r="G2" s="5" t="n">
-        <v>0.2049</v>
+        <v>0.2223</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>8.619999999999999</v>
+        <v>8.75</v>
       </c>
       <c r="I2" s="6" t="inlineStr"/>
       <c r="J2" s="6" t="inlineStr"/>
@@ -612,7 +612,7 @@
         <v>10061717000</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>72320000000</v>
+        <v>73340000000</v>
       </c>
       <c r="Q2" s="3" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C3" s="4" t="n">
-        <v>33.79</v>
+        <v>33.56</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>28.97</v>
@@ -651,13 +651,13 @@
         <v>36.26</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>0.2365</v>
+        <v>0.238</v>
       </c>
       <c r="G3" s="5" t="n">
-        <v>0.0108</v>
+        <v>0.0027</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>6.01</v>
+        <v>5.97</v>
       </c>
       <c r="I3" s="5" t="n">
         <v>0.2931</v>
@@ -681,7 +681,7 @@
         <v>1109849000</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>4579862810</v>
+        <v>4541911890</v>
       </c>
       <c r="Q3" s="3" t="inlineStr">
         <is>
@@ -711,7 +711,7 @@
         </is>
       </c>
       <c r="C4" s="4" t="n">
-        <v>23.31</v>
+        <v>23.28</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>13.92</v>
@@ -723,7 +723,7 @@
         <v>0.079</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>0.3992</v>
+        <v>0.3974</v>
       </c>
       <c r="H4" s="3" t="n">
         <v>11.69</v>
@@ -750,7 +750,7 @@
         <v>913453000</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>6803608301</v>
+        <v>6765664540</v>
       </c>
       <c r="Q4" s="3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="C5" s="4" t="n">
-        <v>12.68</v>
+        <v>12.36</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>7.53</v>
@@ -790,10 +790,10 @@
       </c>
       <c r="F5" s="6" t="inlineStr"/>
       <c r="G5" s="5" t="n">
-        <v>0.2323</v>
+        <v>0.2012</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>8.76</v>
+        <v>8.57</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>0.3277</v>
@@ -813,7 +813,7 @@
         <v>623151000</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2589966080</v>
+        <v>2545029760</v>
       </c>
       <c r="Q5" s="3" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         </is>
       </c>
       <c r="C6" s="4" t="n">
-        <v>11.77</v>
+        <v>11.69</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>9.43</v>
@@ -852,13 +852,13 @@
         <v>12.29</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.09050000000000001</v>
+        <v>0.09089999999999999</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1263</v>
+        <v>0.1177</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>12.37</v>
+        <v>12.31</v>
       </c>
       <c r="I6" s="5" t="n">
         <v>0.3061</v>
@@ -882,7 +882,7 @@
         <v>1234901000</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>6502873954</v>
+        <v>6475249170</v>
       </c>
       <c r="Q6" s="3" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="C7" s="4" t="n">
-        <v>45.68</v>
+        <v>45.7</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>38.15</v>
@@ -921,13 +921,13 @@
         <v>46.61</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.0512</v>
+        <v>0.05110000000000001</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.1469</v>
+        <v>0.1471</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>8.529999999999999</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>0.555</v>
@@ -951,7 +951,7 @@
         <v>11061451000</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>37271579163</v>
+        <v>37165508557</v>
       </c>
       <c r="Q7" s="3" t="inlineStr">
         <is>
